--- a/Employee Data/Iqama of Si Manpower(1).xlsx
+++ b/Employee Data/Iqama of Si Manpower(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Employee Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA69BA20-0364-4B24-8DE8-151773FA0994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5FA22D-2C28-42DA-BE8E-FCD118C469A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="535">
   <si>
     <t xml:space="preserve">    HC02</t>
   </si>
@@ -1636,6 +1636,9 @@
   </si>
   <si>
     <t>Ghulam Abbas</t>
+  </si>
+  <si>
+    <t>BUBAKAR SHAFIQUE</t>
   </si>
 </sst>
 </file>
@@ -2065,9 +2068,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2078,6 +2078,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2368,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="B213" sqref="B213"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2390,14 +2393,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.399999999999999">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="I1" s="16" t="s">
         <v>1</v>
       </c>
@@ -9979,22 +9982,22 @@
       </c>
     </row>
     <row r="207" spans="1:14" ht="15.6">
-      <c r="A207" s="39">
+      <c r="A207" s="38">
         <v>179</v>
       </c>
-      <c r="B207" s="36" t="s">
+      <c r="B207" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="C207" s="36">
+      <c r="C207" s="35">
         <v>2223</v>
       </c>
-      <c r="D207" s="36" t="s">
+      <c r="D207" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E207" s="38" t="s">
+      <c r="E207" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G207" s="37">
+      <c r="G207" s="36">
         <v>2516083637</v>
       </c>
       <c r="I207" s="28">
@@ -10015,6 +10018,18 @@
       </c>
     </row>
     <row r="208" spans="1:14">
+      <c r="B208" t="s">
+        <v>349</v>
+      </c>
+      <c r="C208">
+        <v>4785</v>
+      </c>
+      <c r="D208" t="s">
+        <v>170</v>
+      </c>
+      <c r="G208">
+        <v>2600082651</v>
+      </c>
       <c r="I208" s="31">
         <v>178</v>
       </c>
@@ -10032,7 +10047,19 @@
         <v>2560468536</v>
       </c>
     </row>
-    <row r="209" spans="9:14">
+    <row r="209" spans="2:14">
+      <c r="B209" t="s">
+        <v>351</v>
+      </c>
+      <c r="C209">
+        <v>4786</v>
+      </c>
+      <c r="D209" t="s">
+        <v>170</v>
+      </c>
+      <c r="G209">
+        <v>2600081745</v>
+      </c>
       <c r="I209" s="28">
         <v>179</v>
       </c>
@@ -10050,7 +10077,19 @@
         <v>2558351710</v>
       </c>
     </row>
-    <row r="210" spans="9:14">
+    <row r="210" spans="2:14">
+      <c r="B210" t="s">
+        <v>353</v>
+      </c>
+      <c r="C210">
+        <v>4787</v>
+      </c>
+      <c r="D210" t="s">
+        <v>170</v>
+      </c>
+      <c r="G210">
+        <v>2600082115</v>
+      </c>
       <c r="I210" s="31">
         <v>180</v>
       </c>
@@ -10068,7 +10107,19 @@
         <v>2558188237</v>
       </c>
     </row>
-    <row r="211" spans="9:14">
+    <row r="211" spans="2:14">
+      <c r="B211" t="s">
+        <v>355</v>
+      </c>
+      <c r="C211">
+        <v>4788</v>
+      </c>
+      <c r="D211" t="s">
+        <v>170</v>
+      </c>
+      <c r="G211">
+        <v>2600085548</v>
+      </c>
       <c r="I211" s="28">
         <v>181</v>
       </c>
@@ -10086,7 +10137,19 @@
         <v>2281396776</v>
       </c>
     </row>
-    <row r="212" spans="9:14">
+    <row r="212" spans="2:14">
+      <c r="B212" t="s">
+        <v>357</v>
+      </c>
+      <c r="C212">
+        <v>4789</v>
+      </c>
+      <c r="D212" t="s">
+        <v>170</v>
+      </c>
+      <c r="G212">
+        <v>2600085738</v>
+      </c>
       <c r="I212" s="31">
         <v>182</v>
       </c>
@@ -10104,7 +10167,19 @@
         <v>2564450480</v>
       </c>
     </row>
-    <row r="213" spans="9:14">
+    <row r="213" spans="2:14">
+      <c r="B213" t="s">
+        <v>263</v>
+      </c>
+      <c r="C213">
+        <v>4776</v>
+      </c>
+      <c r="D213" t="s">
+        <v>170</v>
+      </c>
+      <c r="G213">
+        <v>2600078907</v>
+      </c>
       <c r="I213" s="28">
         <v>183</v>
       </c>
@@ -10122,7 +10197,19 @@
         <v>2558357980</v>
       </c>
     </row>
-    <row r="214" spans="9:14">
+    <row r="214" spans="2:14">
+      <c r="B214" t="s">
+        <v>265</v>
+      </c>
+      <c r="C214">
+        <v>4777</v>
+      </c>
+      <c r="D214" t="s">
+        <v>170</v>
+      </c>
+      <c r="G214">
+        <v>2600079046</v>
+      </c>
       <c r="I214" s="31">
         <v>184</v>
       </c>
@@ -10140,7 +10227,19 @@
         <v>2558187502</v>
       </c>
     </row>
-    <row r="215" spans="9:14">
+    <row r="215" spans="2:14">
+      <c r="B215" t="s">
+        <v>267</v>
+      </c>
+      <c r="C215">
+        <v>4778</v>
+      </c>
+      <c r="D215" t="s">
+        <v>170</v>
+      </c>
+      <c r="G215">
+        <v>2600079343</v>
+      </c>
       <c r="I215" s="28">
         <v>185</v>
       </c>
@@ -10158,7 +10257,19 @@
         <v>2564449250</v>
       </c>
     </row>
-    <row r="216" spans="9:14">
+    <row r="216" spans="2:14">
+      <c r="B216" t="s">
+        <v>269</v>
+      </c>
+      <c r="C216">
+        <v>4779</v>
+      </c>
+      <c r="D216" t="s">
+        <v>170</v>
+      </c>
+      <c r="G216">
+        <v>2600079798</v>
+      </c>
       <c r="I216" s="31">
         <v>186</v>
       </c>
@@ -10176,7 +10287,19 @@
         <v>2505211892</v>
       </c>
     </row>
-    <row r="217" spans="9:14">
+    <row r="217" spans="2:14">
+      <c r="B217" t="s">
+        <v>271</v>
+      </c>
+      <c r="C217">
+        <v>4780</v>
+      </c>
+      <c r="D217" t="s">
+        <v>170</v>
+      </c>
+      <c r="G217">
+        <v>2600080150</v>
+      </c>
       <c r="I217" s="28">
         <v>187</v>
       </c>
@@ -10194,7 +10317,19 @@
         <v>2555632336</v>
       </c>
     </row>
-    <row r="218" spans="9:14">
+    <row r="218" spans="2:14">
+      <c r="B218" t="s">
+        <v>273</v>
+      </c>
+      <c r="C218">
+        <v>4781</v>
+      </c>
+      <c r="D218" t="s">
+        <v>170</v>
+      </c>
+      <c r="G218">
+        <v>2600080424</v>
+      </c>
       <c r="I218" s="31">
         <v>188</v>
       </c>
@@ -10212,7 +10347,19 @@
         <v>2530515200</v>
       </c>
     </row>
-    <row r="219" spans="9:14">
+    <row r="219" spans="2:14">
+      <c r="B219" t="s">
+        <v>275</v>
+      </c>
+      <c r="C219">
+        <v>4782</v>
+      </c>
+      <c r="D219" t="s">
+        <v>170</v>
+      </c>
+      <c r="G219">
+        <v>2600080705</v>
+      </c>
       <c r="I219" s="28">
         <v>189</v>
       </c>
@@ -10230,7 +10377,19 @@
         <v>2488061942</v>
       </c>
     </row>
-    <row r="220" spans="9:14">
+    <row r="220" spans="2:14">
+      <c r="B220" t="s">
+        <v>534</v>
+      </c>
+      <c r="C220">
+        <v>4783</v>
+      </c>
+      <c r="D220" t="s">
+        <v>170</v>
+      </c>
+      <c r="G220">
+        <v>2600080879</v>
+      </c>
       <c r="I220" s="31">
         <v>190</v>
       </c>
@@ -10248,7 +10407,19 @@
         <v>2579710191</v>
       </c>
     </row>
-    <row r="221" spans="9:14">
+    <row r="221" spans="2:14">
+      <c r="B221" t="s">
+        <v>279</v>
+      </c>
+      <c r="C221">
+        <v>4784</v>
+      </c>
+      <c r="D221" t="s">
+        <v>170</v>
+      </c>
+      <c r="G221">
+        <v>2600081109</v>
+      </c>
       <c r="I221" s="28">
         <v>191</v>
       </c>
@@ -10266,7 +10437,19 @@
         <v>2591179722</v>
       </c>
     </row>
-    <row r="222" spans="9:14">
+    <row r="222" spans="2:14">
+      <c r="B222" t="s">
+        <v>281</v>
+      </c>
+      <c r="C222">
+        <v>4790</v>
+      </c>
+      <c r="D222" t="s">
+        <v>170</v>
+      </c>
+      <c r="G222">
+        <v>2600768739</v>
+      </c>
       <c r="I222" s="31">
         <v>192</v>
       </c>
@@ -10284,7 +10467,19 @@
         <v>2591048430</v>
       </c>
     </row>
-    <row r="223" spans="9:14">
+    <row r="223" spans="2:14">
+      <c r="B223" t="s">
+        <v>283</v>
+      </c>
+      <c r="C223">
+        <v>4791</v>
+      </c>
+      <c r="D223" t="s">
+        <v>170</v>
+      </c>
+      <c r="G223">
+        <v>2600083626</v>
+      </c>
       <c r="I223" s="28">
         <v>193</v>
       </c>
@@ -10302,7 +10497,19 @@
         <v>2591048893</v>
       </c>
     </row>
-    <row r="224" spans="9:14">
+    <row r="224" spans="2:14">
+      <c r="B224" t="s">
+        <v>285</v>
+      </c>
+      <c r="C224">
+        <v>4792</v>
+      </c>
+      <c r="D224" t="s">
+        <v>170</v>
+      </c>
+      <c r="G224">
+        <v>2600083303</v>
+      </c>
       <c r="I224" s="31">
         <v>194</v>
       </c>
@@ -10320,7 +10527,19 @@
         <v>2591053778</v>
       </c>
     </row>
-    <row r="225" spans="9:14">
+    <row r="225" spans="2:14">
+      <c r="B225" t="s">
+        <v>287</v>
+      </c>
+      <c r="C225">
+        <v>4793</v>
+      </c>
+      <c r="D225" t="s">
+        <v>170</v>
+      </c>
+      <c r="G225">
+        <v>2600083915</v>
+      </c>
       <c r="I225" s="28">
         <v>195</v>
       </c>
@@ -10338,7 +10557,19 @@
         <v>2592707430</v>
       </c>
     </row>
-    <row r="226" spans="9:14">
+    <row r="226" spans="2:14">
+      <c r="B226" t="s">
+        <v>289</v>
+      </c>
+      <c r="C226">
+        <v>4794</v>
+      </c>
+      <c r="D226" t="s">
+        <v>170</v>
+      </c>
+      <c r="G226">
+        <v>2600085852</v>
+      </c>
       <c r="I226" s="31">
         <v>196</v>
       </c>
@@ -10356,7 +10587,19 @@
         <v>2591048539</v>
       </c>
     </row>
-    <row r="227" spans="9:14">
+    <row r="227" spans="2:14">
+      <c r="B227" t="s">
+        <v>460</v>
+      </c>
+      <c r="C227">
+        <v>4775</v>
+      </c>
+      <c r="D227" t="s">
+        <v>336</v>
+      </c>
+      <c r="G227">
+        <v>2600079574</v>
+      </c>
       <c r="I227" s="28">
         <v>197</v>
       </c>
@@ -10374,7 +10617,7 @@
         <v>2591049107</v>
       </c>
     </row>
-    <row r="228" spans="9:14">
+    <row r="228" spans="2:14">
       <c r="I228" s="31">
         <v>198</v>
       </c>
@@ -10392,7 +10635,7 @@
         <v>2591048711</v>
       </c>
     </row>
-    <row r="229" spans="9:14">
+    <row r="229" spans="2:14">
       <c r="I229" s="28">
         <v>199</v>
       </c>
@@ -10410,7 +10653,7 @@
         <v>2591049461</v>
       </c>
     </row>
-    <row r="230" spans="9:14">
+    <row r="230" spans="2:14">
       <c r="I230" s="31">
         <v>200</v>
       </c>
@@ -10428,7 +10671,7 @@
         <v>2591049222</v>
       </c>
     </row>
-    <row r="231" spans="9:14">
+    <row r="231" spans="2:14">
       <c r="I231" s="28">
         <v>201</v>
       </c>
@@ -10446,7 +10689,7 @@
         <v>2590966194</v>
       </c>
     </row>
-    <row r="232" spans="9:14">
+    <row r="232" spans="2:14">
       <c r="I232" s="31">
         <v>202</v>
       </c>
@@ -10464,7 +10707,7 @@
         <v>2591048083</v>
       </c>
     </row>
-    <row r="233" spans="9:14">
+    <row r="233" spans="2:14">
       <c r="I233" s="28">
         <v>203</v>
       </c>
@@ -10482,7 +10725,7 @@
         <v>2591024407</v>
       </c>
     </row>
-    <row r="234" spans="9:14">
+    <row r="234" spans="2:14">
       <c r="I234" s="31">
         <v>204</v>
       </c>
@@ -10500,7 +10743,7 @@
         <v>2591049008</v>
       </c>
     </row>
-    <row r="235" spans="9:14">
+    <row r="235" spans="2:14">
       <c r="I235" s="28">
         <v>205</v>
       </c>
@@ -10518,7 +10761,7 @@
         <v>2591179821</v>
       </c>
     </row>
-    <row r="236" spans="9:14">
+    <row r="236" spans="2:14">
       <c r="I236" s="31">
         <v>206</v>
       </c>
@@ -10536,7 +10779,7 @@
         <v>2593182278</v>
       </c>
     </row>
-    <row r="237" spans="9:14">
+    <row r="237" spans="2:14">
       <c r="I237" s="28">
         <v>207</v>
       </c>
@@ -10554,7 +10797,7 @@
         <v>3186915041</v>
       </c>
     </row>
-    <row r="238" spans="9:14">
+    <row r="238" spans="2:14">
       <c r="I238" s="31">
         <v>208</v>
       </c>
@@ -10572,7 +10815,7 @@
         <v>2593182831</v>
       </c>
     </row>
-    <row r="239" spans="9:14">
+    <row r="239" spans="2:14">
       <c r="I239" s="28">
         <v>209</v>
       </c>
@@ -10590,7 +10833,7 @@
         <v>2593183151</v>
       </c>
     </row>
-    <row r="240" spans="9:14">
+    <row r="240" spans="2:14">
       <c r="I240" s="31">
         <v>210</v>
       </c>
